--- a/codeforces/problem_journal.xlsx
+++ b/codeforces/problem_journal.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d29575c5b92d780/Ace_to_a_TopCoder/competitive-programming/codeforces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1E001B8B-697E-D141-A969-39B7242A4487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:40009_{1E001B8B-697E-D141-A969-39B7242A4487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36CC9362-E024-2546-B6AE-0B2A14E7860B}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="500" windowWidth="42140" windowHeight="26420"/>
+    <workbookView xWindow="7320" yWindow="500" windowWidth="42140" windowHeight="26420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem_journal" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="167">
   <si>
     <t>Problem</t>
   </si>
@@ -353,12 +353,180 @@
   </si>
   <si>
     <t xml:space="preserve">I made a mistake at the beginning, thinking that only count the number of parentheses is enough. This is wrong. Think about )(. This was used in my first answer. </t>
+  </si>
+  <si>
+    <t>1467A</t>
+  </si>
+  <si>
+    <t>greedy, constructive</t>
+  </si>
+  <si>
+    <t>I used s = s + char, many times, hence get TLS.</t>
+  </si>
+  <si>
+    <t>Out put a string, with 9890123….</t>
+  </si>
+  <si>
+    <t>Just output it.</t>
+  </si>
+  <si>
+    <t>use cout&lt;&lt; directly is faster than create a string like s += char.</t>
+  </si>
+  <si>
+    <t>1467B</t>
+  </si>
+  <si>
+    <t>If a[i] &gt; a[i-1] and a[i] &gt; a[i+1], it is a hill. If a[i] &lt; a[i-1] and a[i] &lt; a[i+1], it is a valley. Change one to minimize the number of valleys and hills.</t>
+  </si>
+  <si>
+    <t>implementation, brute force and solve</t>
+  </si>
+  <si>
+    <t>Equality doesn’t add any non-hill or non-valley. There's a kind of problem, where you don't actually solve it, but you can write a program to test it. Hence it is easier than you expect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This problem has a classical way to solve/prove. Assuming we know the nubmer, then see what it satisfies. There is no need to "figure out" all situations. Just write a program to check, when enumeration is easy. I made a mistake: I didn't add the bound to check isvalley/ishill, and it leads to WA, because in the solution we checked ishill(a[i+1]), even if i is in [1,n-2], i+1 is not.  </t>
+  </si>
+  <si>
+    <t>1467C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 bags with numbers. Each time pick a from one back, pick b from another bag. Remove b, replace a with a-b. Output the maximized last number in the bags. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct trees and use its even/odd layers to solve the problem. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We use a trick smilar to 1467B. We do not need to figure out all details. We just need to know what situations we can have and the optimal solution must in them. Enumerate and compare, done. Save much time for delicate case analysis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct a tree, the leaves points to root. The edge is valid only if the two nodes are from different sets. The final result = sum(Even height elements) - sum(Odd height elements). Hence the goal is to minimize the odd layer sum. 2 cases here: the odd layers contain all things from one set and only from that set; the odd layers contain two different sets' content (so 2 elements are enough). For the fist case, we find min sum of all sets, because other sets' items can be put elsewhere. Also if the layer doesn't contain all elements in that set, the remaining elements has no where to go.  For the second case, just find the min items in the three sets, then pick the smaller 2. </t>
+  </si>
+  <si>
+    <t>1480B</t>
+  </si>
+  <si>
+    <t>Given monster's hps and dmgs, and hero's dmg and hp, decide if he can kill all monsters.</t>
+  </si>
+  <si>
+    <t>The key is to realize that we need to find the last hit. Because for the last hit, the hero doesn't need to take all dmgs. But before the last hit, he needs to take all dmgs. So an easy and quick way is to first remove all dmgs, then add the last hit back, to see if the hero can survive (hp &gt; 0) till then. One for loop will solve this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I made mistakes twice when doing this problem. Also I was trying to solve the problem clearly, but this searching way is definitely saving our thinking time. </t>
+  </si>
+  <si>
+    <t>1480C</t>
+  </si>
+  <si>
+    <t>Find local minimum, by querying.</t>
+  </si>
+  <si>
+    <t>interaction, binary search, ternary search</t>
+  </si>
+  <si>
+    <t>Use [l,r] as the boundary for the binary search, maintain that a[l-1] and a[r+1] are always greater than a[l] and a[r]. Check mid, if a[m] &lt; a[m+1], hi = m, else lo = m + 1. This makes sure that our binary search is always good. So the ending condition, is lo = hi. Output it.</t>
+  </si>
+  <si>
+    <t>1481B</t>
+  </si>
+  <si>
+    <t>I was too afraid and stupid to notice that the simulation can solve the problem. Even if k is super large, after at most 100*100 simulations the hills are filled. So this is not a problem</t>
+  </si>
+  <si>
+    <t>Simulate.</t>
+  </si>
+  <si>
+    <t>Given n hills, throw balls to them. If a ball can't pass, it increase the height of the hill.</t>
+  </si>
+  <si>
+    <t>1481C</t>
+  </si>
+  <si>
+    <t>map:: insert, erase. Deque:: pop_front</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given fences' original colors and target colors. Each painter paints one color, give n fences and m colors. Output yes to give paint plan, or no for impossibility. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The key is the last painter. All the colors can be covered by him. So if he doesn't match the target it is a no. If he can contribute, then use him to contribute. For the previous m-1 painters, we use greedy to let them solve a[i] != b[i] cases. Use map to remember color::indices. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made a small mistake, when the last guy is not contributing, but still in target colors. This is the edge case. </t>
+  </si>
+  <si>
+    <t>1485A</t>
+  </si>
+  <si>
+    <t>Give a, b, either replace a by a/b, or increase b by 1. Output the least number of operations to make a be 0.</t>
+  </si>
+  <si>
+    <t>At most 30 operations when b &gt; 1, so enumerate the number of increments, then test the min answer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is again an example to show that we do not need to compute the exact answer but output the optimal after some tests. </t>
+  </si>
+  <si>
+    <t>1485B</t>
+  </si>
+  <si>
+    <t>First time I do this problem I got TLE. Now I've improved to compute the sum for multiple queries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given [l,r], the problem is to check the left possibilities, right possibilities, plus middle possibilities. </t>
+  </si>
+  <si>
+    <t>Give n, k, q. An array of size n, strictly increasing, from 1 to k, no duplicates. Given q queries, [l,r]. For one query, we compute the #k-similar arrays within that range. K-similar means differ by just 1 entry, using numbers from 1 to k, no duplicates.</t>
+  </si>
+  <si>
+    <t>1485C</t>
+  </si>
+  <si>
+    <t>1487B</t>
+  </si>
+  <si>
+    <t>1487C</t>
+  </si>
+  <si>
+    <t>labeling from 1 to n, when we want module, we do (k-1) % n + 1. This is equivalent to assuming the index starts at 0, normal module, then add the shift back</t>
+  </si>
+  <si>
+    <t>Cat A go from n to 1 in a cyclic way, Cat B go from 1 to n in a cyclic way, B jumps over A when they collide. Given n and k, decide where B stops.</t>
+  </si>
+  <si>
+    <t>Given a number of teams, design a win-loss plan to make them have same points.</t>
+  </si>
+  <si>
+    <t>Use symmetry observe the graph then get the answer.</t>
+  </si>
+  <si>
+    <t>number theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notice that it's a cycle. Every n/2 steps, the cat B must jump. After it jumps, if we draw a cycle view, we can see that the remaining half can form a new cycle. Hence compute k/(n/2) gets the number of added steps. </t>
+  </si>
+  <si>
+    <t>Given x,y, a and b are bounded by them. If the remainder a % b is equal to a/b, then it's a pair. Find the number of pairs.</t>
+  </si>
+  <si>
+    <t>Note that (x-r)/r is b_max. This should be compared with y. Also b needs to be greater than r, hence b-r pairs or 0 if b &lt;= r. Enumerate r.</t>
+  </si>
+  <si>
+    <t>Again this is a problem, with enumeration, and a bit number theory.</t>
+  </si>
+  <si>
+    <t>1487D</t>
+  </si>
+  <si>
+    <t>Find the number of triples such that, c^2 = a^2 + b^2 and c = a^2 - b.</t>
+  </si>
+  <si>
+    <t>Use number theory to find the pattern of a,b,c. Then find the number of odd numbers in it.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1204,11 +1372,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1218,7 +1386,7 @@
     <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.83203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="36" style="1" customWidth="1"/>
   </cols>
@@ -1347,7 +1515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -1373,7 +1541,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
@@ -1537,7 +1705,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>94</v>
       </c>
@@ -1583,7 +1751,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>105</v>
       </c>
@@ -1607,79 +1775,361 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2">
         <v>900</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1700</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1900</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="2">
+        <v>900</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1700</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1700</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2">
+        <v>900</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="31" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B31" s="2">
         <v>1100</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="32" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B32" s="2">
         <v>1600</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/codeforces/problem_journal.xlsx
+++ b/codeforces/problem_journal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d29575c5b92d780/Ace_to_a_TopCoder/competitive-programming/codeforces/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/OneDrive/Ace_to_a_TopCoder/competitive-programming/codeforces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:40009_{1E001B8B-697E-D141-A969-39B7242A4487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36CC9362-E024-2546-B6AE-0B2A14E7860B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2459E60B-7E5C-9F4A-8B13-FD6F41E836BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="500" windowWidth="42140" windowHeight="26420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="199">
   <si>
     <t>Problem</t>
   </si>
@@ -521,6 +521,102 @@
   </si>
   <si>
     <t>Use number theory to find the pattern of a,b,c. Then find the number of odd numbers in it.</t>
+  </si>
+  <si>
+    <t>1611b</t>
+  </si>
+  <si>
+    <t>1611c</t>
+  </si>
+  <si>
+    <t>Given a, b, as numbers of programmers and mathematicians, each team has 4 people and we must mix them. Find the maximum number of teams.</t>
+  </si>
+  <si>
+    <t>Using (a+b)/4 to find the maximum number of teams without the constraint. Then min(a, b, (a+b)/4) should be the answer, because we must include them together.</t>
+  </si>
+  <si>
+    <t>1611d</t>
+  </si>
+  <si>
+    <t>This one is a bit tricky, because we always choose the smaller one, so we can put the larget one at one end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array, each time we pick the smaller one of the left end and right end, put it to a new array, at the left if it's from the left and right if it's from the right. Out put an array to generate the given array. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a tree with n vertices, assign weights to edges, such that given a sequence order p, the weights to the root is following that order. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The key is d[p[i]] &lt; d[p[i+1]]. The tree structure is given. We maintain a distance array for the nodes. We know d[root] = 0, then when we see a p[i], we check if it's father has been visited and check d[father]. We make the weights to the top to be just i, so the assigned weight from p[i] to its father is just i-d[father]. Done.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I made a mistake. I thought when we see a p[i], we need to update all its ancestors, but we just need to check it's father's weight and whether it's father has been visited. Because if one of its ancestors wasn't visited, this unvisited one's direct child will find it before the current one finds it. Maintaining that array d can make sure that we don't miss one ancestor. </t>
+  </si>
+  <si>
+    <t>1612b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an even number n, and a number a, b. Output a permutation such that a is the smallest on the left half and b is the largest on the right half. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note that we just need to check if we have enough numbers for a and b to fill in, then the problem can be solved, it's not difficult at all. </t>
+  </si>
+  <si>
+    <t>1612c</t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given k,x, you try to output 1,2,3…,k-1,k,k-1,k-2,…,1 messages. If the sum exceeds x, you get banned. Out put the maximum number of messages you can go. </t>
+  </si>
+  <si>
+    <t>vairants of binary search can be converted to binary search</t>
+  </si>
+  <si>
+    <t>1612d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The trick is to compute the (yes no) for mid in a clever way, then that is our binary search. </t>
+  </si>
+  <si>
+    <t>The first time I do this question, I used binary search in a redundant way, I split the array to two parts then do it, this increases the difficulty. I also made a stupid mistake when I passed k to the function g.</t>
+  </si>
+  <si>
+    <t>Given a,b, replace a or b by |a-b|. If x can be obtained by this operation, then we out put YES, else NO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got TLE during the contest. I was stupid, I let a,b do the operations, but I should just realize that if x is not in [min, max], then replace max to max % min. </t>
+  </si>
+  <si>
+    <t>Note that if a &gt; b, then they will be replaced by a-b, b, until the number is smaller than b, then this continues. Hence when we can reach x, it means that x &gt; min(a,b) and (max-x)%min = 0. Otherwise, replace the max by max % min, to save time, until one of them becomes 0.</t>
+  </si>
+  <si>
+    <t>1614b</t>
+  </si>
+  <si>
+    <t>1614c</t>
+  </si>
+  <si>
+    <t>Given number of visits, arrange locations to make the total time minimized.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The problem is easy to solve. </t>
+  </si>
+  <si>
+    <t>I made a mistake when using map, I fogot there might be duplicated keys.</t>
+  </si>
+  <si>
+    <t>map&lt; ll,ll, greater&lt;ll&gt; &gt;, sort(begin,end, f) where f is just a function to compare things in the container.</t>
+  </si>
+  <si>
+    <t>fastpower, while pow is not zero, do it from base.</t>
+  </si>
+  <si>
+    <t>Given OR of intervals in an array, output the sum of XORs of all subsequence. Given n numbers, and m ORs.</t>
+  </si>
+  <si>
+    <t>The problem is tricky. As long as we find the answer is just m * 2^{n-1} we are done, note that we can speed up by using fast power. We just use m to detect total position of 1s.</t>
   </si>
 </sst>
 </file>
@@ -1007,16 +1103,16 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1373,764 +1469,907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="49.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="36" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1600</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1100</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1600</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1200</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1500</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1900</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1200</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>1100</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1500</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>800</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1000</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>1300</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1600</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>1200</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>1400</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>900</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>1700</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="1"/>
+      <c r="H18" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="221" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>1900</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>900</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="1"/>
+      <c r="H20" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>1700</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>1100</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>1600</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>1000</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
+      <c r="G24" s="1"/>
+      <c r="H24" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>1200</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
+      <c r="G25" s="1"/>
+      <c r="H25" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>1700</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>1200</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>1500</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="G28" s="1"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>1500</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="G29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>900</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
+      <c r="G30" s="1"/>
+      <c r="H30" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>1100</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>1600</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="3" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="1">
+        <v>800</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="1">
+        <v>900</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/codeforces/problem_journal.xlsx
+++ b/codeforces/problem_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/OneDrive/Ace_to_a_TopCoder/competitive-programming/codeforces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2459E60B-7E5C-9F4A-8B13-FD6F41E836BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AA021E-2BE3-6247-9488-277143CACFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="500" windowWidth="42140" windowHeight="26420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="210">
   <si>
     <t>Problem</t>
   </si>
@@ -28,18 +28,12 @@
     <t>Difficulty</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Topics</t>
   </si>
   <si>
     <t>1B</t>
   </si>
   <si>
-    <t>20min</t>
-  </si>
-  <si>
     <t>implementation, maths</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>431C</t>
   </si>
   <si>
-    <t>35min</t>
-  </si>
-  <si>
     <t>dp</t>
   </si>
   <si>
@@ -82,30 +73,18 @@
     <t>1043B</t>
   </si>
   <si>
-    <t>10min</t>
-  </si>
-  <si>
     <t>implementation</t>
   </si>
   <si>
     <t>For this problem, n^2, n = 1e6 works. Remember that.</t>
   </si>
   <si>
-    <t>1610a</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>row/col two ways to number. Convert between them</t>
   </si>
   <si>
-    <t>1610b</t>
-  </si>
-  <si>
-    <t>1610c</t>
-  </si>
-  <si>
     <t>Two corner points can create a new coordinate system. Hence solved. The edge cases are 1x1 and 1xn.</t>
   </si>
   <si>
@@ -115,12 +94,6 @@
     <t>On a nxm board, use k vertices and Manhattan distance to determine a pont.</t>
   </si>
   <si>
-    <t>90min</t>
-  </si>
-  <si>
-    <t>45min</t>
-  </si>
-  <si>
     <t>In an array, only jump one type of number, to make it a palindrome.</t>
   </si>
   <si>
@@ -145,18 +118,12 @@
     <t xml:space="preserve">For such problems, I wasted much time on debugging. In fact my only mistake was that I forgot to skip the duplicated things… Don't forget it next time. </t>
   </si>
   <si>
-    <t>120min</t>
-  </si>
-  <si>
     <t>greedy, binary search</t>
   </si>
   <si>
     <t>Each guest has (a, b) as its tolerence about the number of people after it, and before it. We want to maximize the number of guests invited.</t>
   </si>
   <si>
-    <t>For one target number of guest, we go through the people, and check if it works. The condition is that, #chosen &lt;= b_i, and #target &lt;= 1 + a_i.</t>
-  </si>
-  <si>
     <t>The boundary of the binary search should be clear and careful. The reason why we have a 1+, in the second inequality is that we haven't chosen that person, and we are about to decide whether to choose or not. This is a tiny detail in this problem.</t>
   </si>
   <si>
@@ -229,9 +196,6 @@
     <t>1084C</t>
   </si>
   <si>
-    <t>30min</t>
-  </si>
-  <si>
     <t>Give a string, we want to pick a substring of it, such that, all of them are a, but there must be a 'b' between any two a's in the original string. Out put the number of such choices</t>
   </si>
   <si>
@@ -523,21 +487,12 @@
     <t>Use number theory to find the pattern of a,b,c. Then find the number of odd numbers in it.</t>
   </si>
   <si>
-    <t>1611b</t>
-  </si>
-  <si>
-    <t>1611c</t>
-  </si>
-  <si>
     <t>Given a, b, as numbers of programmers and mathematicians, each team has 4 people and we must mix them. Find the maximum number of teams.</t>
   </si>
   <si>
     <t>Using (a+b)/4 to find the maximum number of teams without the constraint. Then min(a, b, (a+b)/4) should be the answer, because we must include them together.</t>
   </si>
   <si>
-    <t>1611d</t>
-  </si>
-  <si>
     <t>This one is a bit tricky, because we always choose the smaller one, so we can put the larget one at one end.</t>
   </si>
   <si>
@@ -553,18 +508,12 @@
     <t xml:space="preserve">I made a mistake. I thought when we see a p[i], we need to update all its ancestors, but we just need to check it's father's weight and whether it's father has been visited. Because if one of its ancestors wasn't visited, this unvisited one's direct child will find it before the current one finds it. Maintaining that array d can make sure that we don't miss one ancestor. </t>
   </si>
   <si>
-    <t>1612b</t>
-  </si>
-  <si>
     <t xml:space="preserve">Given an even number n, and a number a, b. Output a permutation such that a is the smallest on the left half and b is the largest on the right half. </t>
   </si>
   <si>
     <t xml:space="preserve">Note that we just need to check if we have enough numbers for a and b to fill in, then the problem can be solved, it's not difficult at all. </t>
   </si>
   <si>
-    <t>1612c</t>
-  </si>
-  <si>
     <t>binary search</t>
   </si>
   <si>
@@ -574,9 +523,6 @@
     <t>vairants of binary search can be converted to binary search</t>
   </si>
   <si>
-    <t>1612d</t>
-  </si>
-  <si>
     <t xml:space="preserve">The trick is to compute the (yes no) for mid in a clever way, then that is our binary search. </t>
   </si>
   <si>
@@ -592,12 +538,6 @@
     <t>Note that if a &gt; b, then they will be replaced by a-b, b, until the number is smaller than b, then this continues. Hence when we can reach x, it means that x &gt; min(a,b) and (max-x)%min = 0. Otherwise, replace the max by max % min, to save time, until one of them becomes 0.</t>
   </si>
   <si>
-    <t>1614b</t>
-  </si>
-  <si>
-    <t>1614c</t>
-  </si>
-  <si>
     <t>Given number of visits, arrange locations to make the total time minimized.</t>
   </si>
   <si>
@@ -617,6 +557,99 @@
   </si>
   <si>
     <t>The problem is tricky. As long as we find the answer is just m * 2^{n-1} we are done, note that we can speed up by using fast power. We just use m to detect total position of 1s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found the tricky by some experiments. But later I proved it by induction. </t>
+  </si>
+  <si>
+    <t>1608B</t>
+  </si>
+  <si>
+    <t>1610A</t>
+  </si>
+  <si>
+    <t>1610B</t>
+  </si>
+  <si>
+    <t>1610C</t>
+  </si>
+  <si>
+    <t>1611B</t>
+  </si>
+  <si>
+    <t>1611C</t>
+  </si>
+  <si>
+    <t>1611D</t>
+  </si>
+  <si>
+    <t>1612B</t>
+  </si>
+  <si>
+    <t>1612C</t>
+  </si>
+  <si>
+    <t>1612D</t>
+  </si>
+  <si>
+    <t>1614B</t>
+  </si>
+  <si>
+    <t>1614C</t>
+  </si>
+  <si>
+    <t>Given n,a,b, make a permuation of n, such that there are exactly a local maximums and b local minimums.</t>
+  </si>
+  <si>
+    <t>The answer exists iff |a-b| &lt;=1, because for every 2 local max there is exactly 1 local min and vice versa.</t>
+  </si>
+  <si>
+    <t>I wasted some time on this simple problem. I made it a bit more complicated.</t>
+  </si>
+  <si>
+    <t>1591B</t>
+  </si>
+  <si>
+    <t>1591C</t>
+  </si>
+  <si>
+    <t>Given an array, each time we pick the last element and put the elements smaller than it before it and larger items after it. Output how many times we need to make this array not change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had 1TLE and 1WA for this problem. First time TLE is because I did a simulation for this problem. WA was because I didn't realize that therer are more possible numbers that we need to choose. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note that the array doesn't change when the largest number is at the end. So we need to find where the last largest number is (because the sorting was stable). Second thing is that, after one operation, the last element is the rightmost element that is greater than the previous 'last element'. Hence we only need to count the number of elements that is increasing if we look backwards on the array. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give n locations, a man can take items to them from the origin. Given k as the capacity, output the minimum traveling distance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I used the trick I learned from the previous problems. I searched for the minimum distance in some cases, saving some time. </t>
+  </si>
+  <si>
+    <t>Solve the negative/positive separately. The key is to realize that the remainder should happen near the origin because that can make the total sum minimized. In the end, 2 * sumpos + 2 * sumneg, then minus either pos largest or neg largest, output the smaller one.</t>
+  </si>
+  <si>
+    <t>1591D</t>
+  </si>
+  <si>
+    <t>Given an array, only use 3-cycle to rotate items. Check if we can sort a given array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Think about a sorted array, what would happen if we do a rotation. Two of them remains relatively unchanged, one goes to their left or right. This creates an even permutation. Why? Think about i-&gt;j-&gt;k-&gt;i, no matter what items are in between them, we think it this way: i moves to j, it changes the way of making inversions for j-i items, i.e., if i was greater than them, now no more inversions, if i was smaller, now it creates new inversions, same for j, and k. Then note that the total number of changing, is 2 * (k-i), so it is even always. Now we just need to check, if the inversion is even, or if there are duplicate items we don't need to worry at all, because that can create odd permutations anyways. </t>
+  </si>
+  <si>
+    <t>I thought of number of inversions, which is good. But I didn’t realize that having duplicates solves the problems always.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even/Odd permutation: the parity of a permutation is defined by its number of inversions. Learned how to use mergesort to count the number of inversions in O(nlogn) time and learned linear time O(n) method, but need improving for not any number, not just permutation. </t>
+  </si>
+  <si>
+    <t>1608C</t>
+  </si>
+  <si>
+    <t>For one target number of guest, we go through the people, and check if it works. The condition is that, #chosen &lt;= b_i, and #target &lt;= 1 + a_i. If the conditions are satisfied, this person can be chosen. We then do a binary search on the number of guests.</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1142,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1469,907 +1502,935 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>1600</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>1100</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>1600</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>1200</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>1500</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1">
         <v>1900</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>1200</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>1100</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1">
         <v>1500</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>69</v>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1">
         <v>800</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1">
         <v>1000</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1">
         <v>1300</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
+      <c r="C13" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1">
         <v>1600</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1">
         <v>1200</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1">
         <v>1400</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1">
         <v>900</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B18" s="1">
         <v>1700</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1">
         <v>1900</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="G19" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B20" s="1">
         <v>900</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="C20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B21" s="1">
         <v>1700</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B22" s="1">
         <v>1100</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="C22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B23" s="1">
         <v>1600</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B24" s="1">
         <v>1000</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B25" s="1">
         <v>1200</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="D25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1">
         <v>1700</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B27" s="1">
         <v>1200</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1">
         <v>1500</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B29" s="1">
         <v>1500</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="1">
+        <v>900</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="1">
-        <v>900</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="E37" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" s="1">
-        <v>800</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="170" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36" s="1">
-        <v>900</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1300</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="G37" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B38" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B39" s="1">
         <v>1000</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="C39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B40" s="1">
         <v>1500</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>196</v>
+      <c r="C40" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="1">
+        <v>900</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
